--- a/vest-wy-2016/raw_from_source/VEST/2016_WY_GER/2016_General_Statewide_Candidates_Summary.xlsx
+++ b/vest-wy-2016/raw_from_source/VEST/2016_WY_GER/2016_General_Statewide_Candidates_Summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ELECTION\2016\ELECTION RESULTS\General_2016\WYSOS Spreadsheets\Summaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951e9209bfaac019/Desktop/RDH/WY/pdv-wy/vest-wy-2016/raw_from_source/VEST/2016_WY_GER/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C43AC3AA2890FFF4EFD9FCD8886FAB0E1C742800" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -595,6 +607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -630,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -805,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
@@ -815,20 +861,20 @@
       <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6" customWidth="1"/>
-    <col min="2" max="10" width="19.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="6" customWidth="1"/>
+    <col min="2" max="10" width="19.54296875" style="6" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="17.28515625" style="2"/>
+    <col min="12" max="13" width="14.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="17.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="52" t="s">
         <v>27</v>
@@ -853,7 +899,7 @@
       <c r="P1" s="54"/>
       <c r="Q1" s="55"/>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="34" t="s">
         <v>38</v>
@@ -906,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -959,7 +1005,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1111,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1323,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +1376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +1482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1535,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1588,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1641,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1747,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1853,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1860,7 +1906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1959,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +2012,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +2065,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2072,7 +2118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -2125,7 +2171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2240,7 @@
         <v>6621</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2213,19 +2259,19 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
